--- a/resave11181137.xlsx
+++ b/resave11181137.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7C9C17EC-F3DD-41CF-8558-012156A49F70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B13D0639-6FB8-4D17-8CAE-FA33E00D04EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -442,19 +442,19 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>0.93095183748002741</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>0.69990548204158787</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0.7012385879731875</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0.86813186813186816</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>0.76699029126213591</v>
       </c>
       <c r="H2" s="2">
@@ -495,19 +495,19 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0.86688486370157825</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.810722813110484</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0.55658393654917804</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.86</v>
       </c>
       <c r="H3" s="2">
@@ -548,19 +548,19 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.90683030949839916</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.80086346465191582</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.50948502472338486</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.76923076923076916</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.86614173228346458</v>
       </c>
       <c r="H4" s="2">
@@ -601,19 +601,19 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>0.93940330126224736</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.49707174231332357</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0.55135326658437345</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.65517241379310343</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.57575757575757569</v>
       </c>
       <c r="H5" s="2">
@@ -654,16 +654,17 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.98765432098765427</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -704,19 +705,19 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.88564934555999686</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.51519999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.20383441706593661</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.37391304347826082</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.60563380281690149</v>
       </c>
       <c r="H7" s="2">
@@ -757,19 +758,19 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>0.80137463024186528</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0.66687677277024893</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.42834955177403478</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.56420233463035019</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.74742268041237114</v>
       </c>
       <c r="H8" s="2">
@@ -916,19 +917,19 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>0.86464888622515235</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>0.7907439661607365</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>0.66248107823239855</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0.69897959183673475</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>0.88961038961038963</v>
       </c>
       <c r="H11" s="2">
@@ -969,19 +970,19 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>0.89918809201623817</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>0.51141552511415522</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>0.17246766746864201</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>0.21904761904761899</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.6216216216216216</v>
       </c>
       <c r="H12" s="2">
@@ -1022,19 +1023,19 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>0.88872334481795323</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>0.80471050049067716</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>0.28548189993202783</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>0.45217391304347831</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.8666666666666667</v>
       </c>
       <c r="H13" s="2">
@@ -1075,19 +1076,19 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>0.90578025080973346</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>0.81376767055931165</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>0.40832546182019092</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.64179104477611948</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>0.87755102040816324</v>
       </c>
       <c r="H14" s="2">
@@ -1128,19 +1129,19 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>0.91750562596233565</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>0.50912408759124084</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0.2061287421026356</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>0.35849056603773588</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0.61290322580645162</v>
       </c>
       <c r="H15" s="2">
@@ -1181,19 +1182,19 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>0.83692765751991627</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>0.62664473684210531</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>0.1718866909294276</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.339622641509434</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.71052631578947367</v>
       </c>
       <c r="H16" s="2">
@@ -1234,19 +1235,19 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>0.88022001495247248</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>0.34482758620689657</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>8.7475850988590204E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0.22222222222222221</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0.46153846153846162</v>
       </c>
       <c r="H17" s="2">
@@ -1287,19 +1288,19 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>0.84497769071716178</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>0.79077296641036021</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>0.45536364983611127</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>0.61611374407582931</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>0.87248322147651003</v>
       </c>
       <c r="H18" s="2">
@@ -1340,19 +1341,19 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>0.85637452062482466</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>0.73425636444841447</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.39539613940326679</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>0.54444444444444451</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0.80991735537190079</v>
       </c>
       <c r="H19" s="2">
@@ -1393,19 +1394,19 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>0.76285272516428293</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>0.74075785582255083</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>0.69641169999352881</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>0.85714285714285721</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>0.87378640776699035</v>
       </c>
       <c r="H20" s="2">
@@ -1446,19 +1447,19 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.88292507204610948</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>0.73427041499330659</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0.29648564207887762</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.42647058823529421</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>0.81690140845070425</v>
       </c>
       <c r="H21" s="2">
@@ -1499,19 +1500,19 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.8226821485552207</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>0.77613060611747042</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>0.59128788329946036</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>0.8125</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>0.81851851851851853</v>
       </c>
       <c r="H22" s="2">
@@ -1552,19 +1553,19 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>0.85136905541726715</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>0.65798778527804569</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>0.58014096492526268</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0.71333333333333337</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>0.75352112676056338</v>
       </c>
       <c r="H23" s="2">
